--- a/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,297 +452,569 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3450</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>570</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1830</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>960</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>810</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>550</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>780</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>460</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45432</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45439</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45453</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1700</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45460</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>540</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45467</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45481</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>560</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45488</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45495</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45509</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1220</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45523</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>440</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45530</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45537</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45551</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>320</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45586</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1820</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45593</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1520</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45607</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45621</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B38" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B72" t="n">
         <v>40</v>
       </c>
     </row>
@@ -757,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,89 +1051,185 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>4590</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>4650</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1790</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1940</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2360</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1480</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2160</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>3340</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>140</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1046,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1231,6 +1232,1153 @@
       </c>
       <c r="B24" t="n">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-636.6430257260394</v>
+      </c>
+      <c r="D2" t="n">
+        <v>723.5884720458748</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-589.6831212151328</v>
+      </c>
+      <c r="D3" t="n">
+        <v>738.5850709908807</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-571.2261679555558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>749.4075569795202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-585.7281483827235</v>
+      </c>
+      <c r="D5" t="n">
+        <v>746.5668945988839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-590.8244827857113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>711.0431148223964</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-535.0624971734999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>719.7131259354635</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-582.2913772473448</v>
+      </c>
+      <c r="D8" t="n">
+        <v>765.8290540136693</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>114</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-563.5980361864137</v>
+      </c>
+      <c r="D9" t="n">
+        <v>796.8814818601787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-519.9238741707062</v>
+      </c>
+      <c r="D10" t="n">
+        <v>794.1111648844374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-470.3648577389931</v>
+      </c>
+      <c r="D11" t="n">
+        <v>810.2292965940923</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>175</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-457.4302483824827</v>
+      </c>
+      <c r="D12" t="n">
+        <v>878.8702674516313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>183</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-467.492073604029</v>
+      </c>
+      <c r="D13" t="n">
+        <v>920.1501272542042</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>206</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-426.8853135975946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>861.0512635832769</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>213</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-423.5340256473335</v>
+      </c>
+      <c r="D15" t="n">
+        <v>932.6078899155523</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>221</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-463.180862909428</v>
+      </c>
+      <c r="D16" t="n">
+        <v>833.650622235897</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>229</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-438.6021760031375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>943.1719890998939</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>236</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-459.8927931888003</v>
+      </c>
+      <c r="D18" t="n">
+        <v>946.0198835177441</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>244</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-450.1868071293737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>895.0770928017482</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>252</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-419.6362044522973</v>
+      </c>
+      <c r="D20" t="n">
+        <v>923.8616731309685</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>267</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-392.4952252503711</v>
+      </c>
+      <c r="D21" t="n">
+        <v>936.8398693637459</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>282</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-314.2758046507714</v>
+      </c>
+      <c r="D22" t="n">
+        <v>971.4090404001299</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>305</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-414.8463921836206</v>
+      </c>
+      <c r="D23" t="n">
+        <v>980.1141417636125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>313</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-383.9588805973181</v>
+      </c>
+      <c r="D24" t="n">
+        <v>960.1961906087387</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>321</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-398.1468806889637</v>
+      </c>
+      <c r="D25" t="n">
+        <v>968.3370098517097</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>328</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-300.4593911293841</v>
+      </c>
+      <c r="D26" t="n">
+        <v>993.4159362035201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>336</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-362.4780832236549</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1048.008735011729</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>344</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-332.1092700455959</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1012.49814606384</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>351</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-320.9892437962333</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1009.358407533439</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>359</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-295.6048878414422</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1008.231633925392</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>367</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-269.669842235748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1069.443945965432</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>374</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-340.1264480370506</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1021.82033576792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>382</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-304.0004402957453</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1089.401693723235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>390</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-240.0781717320419</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1023.52862616819</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>405</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-281.8584971199132</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1108.731542600141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>428</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-253.3684232501689</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1124.964345462293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>436</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-242.3478502934478</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1124.895098191723</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>443</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-213.6281624515166</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1103.872430939524</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>451</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-191.4488150168629</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1101.976895008428</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>459</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-214.8125270659654</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1132.074338246837</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>466</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-165.093640363066</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1131.594977956026</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>474</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-197.4055398982362</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1187.198368008229</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>482</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-219.6495232183699</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1146.616839746782</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>489</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-185.9169183449868</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1184.946277202754</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>497</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-152.7401649613681</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1226.898912649489</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>505</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-146.0054812207898</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1180.29805851638</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>512</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-182.4807037775768</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1185.52366181859</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>520</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-192.0056020767541</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1150.998916764872</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>528</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-165.5644801351283</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1254.170157941543</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>535</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-108.7118957132869</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1242.443094895355</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>543</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-97.53238305789634</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1261.309173800735</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>551</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-124.0646052630558</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1159.556291789233</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>558</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-124.3841071550571</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1252.810036639105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>566</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-117.2885040736451</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1230.700246051374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>581</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-56.79747608366263</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1269.985373966387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>589</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-62.60516577239999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1272.590006835926</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>604</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-34.66948586059365</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1267.083664573039</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>612</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-63.37930539624385</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1320.864016987359</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>620</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-76.98061451978518</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1262.873764146057</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>635</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-74.19932502584328</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1315.965414320755</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>643</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-88.90773978567238</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1308.956890662789</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>650</v>
+      </c>
+      <c r="C62" t="n">
+        <v>28.10009147332133</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1306.53237021419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>666</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-34.1288965844203</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1368.902094325354</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>681</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16.85225285360239</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1331.891437803813</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>689</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-5.238889653378166</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1420.34478702922</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>696</v>
+      </c>
+      <c r="C66" t="n">
+        <v>55.08320180158032</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1348.522272933445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>704</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.78076293855977</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1393.668649413338</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>712</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23.89716169152943</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1345.059331549625</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>750</v>
+      </c>
+      <c r="C69" t="n">
+        <v>116.6971162436673</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1409.977726954412</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>758</v>
+      </c>
+      <c r="C70" t="n">
+        <v>83.69377742135788</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1437.044458020383</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>773</v>
+      </c>
+      <c r="C71" t="n">
+        <v>103.8782006108768</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1462.673875422163</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>789</v>
+      </c>
+      <c r="C72" t="n">
+        <v>107.2114460117069</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1451.087922556911</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>796</v>
+      </c>
+      <c r="C73" t="n">
+        <v>78.78999802917812</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1483.282991728968</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>804</v>
+      </c>
+      <c r="C74" t="n">
+        <v>155.495618739007</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1493.980164497453</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>812</v>
+      </c>
+      <c r="C75" t="n">
+        <v>140.8027248788518</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1506.963170226894</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>819</v>
+      </c>
+      <c r="C76" t="n">
+        <v>129.9111838359548</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1459.623355153187</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>827</v>
+      </c>
+      <c r="C77" t="n">
+        <v>176.2134215983134</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1528.89820855122</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>835</v>
+      </c>
+      <c r="C78" t="n">
+        <v>152.5257951743156</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1475.073831143323</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>842</v>
+      </c>
+      <c r="C79" t="n">
+        <v>155.3744851381666</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1549.484075368446</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>850</v>
+      </c>
+      <c r="C80" t="n">
+        <v>170.2533249644576</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1503.866383645433</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
+++ b/po_analysis_by_asin/B0BSB6MB15_po_data.xlsx
@@ -1245,7 +1245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,16 +1264,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1282,12 +1272,6 @@
       <c r="B2" t="n">
         <v>45</v>
       </c>
-      <c r="C2" t="n">
-        <v>-636.6430257260394</v>
-      </c>
-      <c r="D2" t="n">
-        <v>723.5884720458748</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1296,12 +1280,6 @@
       <c r="B3" t="n">
         <v>68</v>
       </c>
-      <c r="C3" t="n">
-        <v>-589.6831212151328</v>
-      </c>
-      <c r="D3" t="n">
-        <v>738.5850709908807</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1310,12 +1288,6 @@
       <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
-        <v>-571.2261679555558</v>
-      </c>
-      <c r="D4" t="n">
-        <v>749.4075569795202</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1324,12 +1296,6 @@
       <c r="B5" t="n">
         <v>83</v>
       </c>
-      <c r="C5" t="n">
-        <v>-585.7281483827235</v>
-      </c>
-      <c r="D5" t="n">
-        <v>746.5668945988839</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1338,12 +1304,6 @@
       <c r="B6" t="n">
         <v>91</v>
       </c>
-      <c r="C6" t="n">
-        <v>-590.8244827857113</v>
-      </c>
-      <c r="D6" t="n">
-        <v>711.0431148223964</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1352,12 +1312,6 @@
       <c r="B7" t="n">
         <v>98</v>
       </c>
-      <c r="C7" t="n">
-        <v>-535.0624971734999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>719.7131259354635</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1366,12 +1320,6 @@
       <c r="B8" t="n">
         <v>106</v>
       </c>
-      <c r="C8" t="n">
-        <v>-582.2913772473448</v>
-      </c>
-      <c r="D8" t="n">
-        <v>765.8290540136693</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1380,12 +1328,6 @@
       <c r="B9" t="n">
         <v>114</v>
       </c>
-      <c r="C9" t="n">
-        <v>-563.5980361864137</v>
-      </c>
-      <c r="D9" t="n">
-        <v>796.8814818601787</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1394,12 +1336,6 @@
       <c r="B10" t="n">
         <v>129</v>
       </c>
-      <c r="C10" t="n">
-        <v>-519.9238741707062</v>
-      </c>
-      <c r="D10" t="n">
-        <v>794.1111648844374</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1408,12 +1344,6 @@
       <c r="B11" t="n">
         <v>167</v>
       </c>
-      <c r="C11" t="n">
-        <v>-470.3648577389931</v>
-      </c>
-      <c r="D11" t="n">
-        <v>810.2292965940923</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1422,12 +1352,6 @@
       <c r="B12" t="n">
         <v>175</v>
       </c>
-      <c r="C12" t="n">
-        <v>-457.4302483824827</v>
-      </c>
-      <c r="D12" t="n">
-        <v>878.8702674516313</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1436,12 +1360,6 @@
       <c r="B13" t="n">
         <v>183</v>
       </c>
-      <c r="C13" t="n">
-        <v>-467.492073604029</v>
-      </c>
-      <c r="D13" t="n">
-        <v>920.1501272542042</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1450,12 +1368,6 @@
       <c r="B14" t="n">
         <v>206</v>
       </c>
-      <c r="C14" t="n">
-        <v>-426.8853135975946</v>
-      </c>
-      <c r="D14" t="n">
-        <v>861.0512635832769</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1464,12 +1376,6 @@
       <c r="B15" t="n">
         <v>213</v>
       </c>
-      <c r="C15" t="n">
-        <v>-423.5340256473335</v>
-      </c>
-      <c r="D15" t="n">
-        <v>932.6078899155523</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1478,12 +1384,6 @@
       <c r="B16" t="n">
         <v>221</v>
       </c>
-      <c r="C16" t="n">
-        <v>-463.180862909428</v>
-      </c>
-      <c r="D16" t="n">
-        <v>833.650622235897</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1492,12 +1392,6 @@
       <c r="B17" t="n">
         <v>229</v>
       </c>
-      <c r="C17" t="n">
-        <v>-438.6021760031375</v>
-      </c>
-      <c r="D17" t="n">
-        <v>943.1719890998939</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1506,12 +1400,6 @@
       <c r="B18" t="n">
         <v>236</v>
       </c>
-      <c r="C18" t="n">
-        <v>-459.8927931888003</v>
-      </c>
-      <c r="D18" t="n">
-        <v>946.0198835177441</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1520,12 +1408,6 @@
       <c r="B19" t="n">
         <v>244</v>
       </c>
-      <c r="C19" t="n">
-        <v>-450.1868071293737</v>
-      </c>
-      <c r="D19" t="n">
-        <v>895.0770928017482</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1534,12 +1416,6 @@
       <c r="B20" t="n">
         <v>252</v>
       </c>
-      <c r="C20" t="n">
-        <v>-419.6362044522973</v>
-      </c>
-      <c r="D20" t="n">
-        <v>923.8616731309685</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1548,12 +1424,6 @@
       <c r="B21" t="n">
         <v>267</v>
       </c>
-      <c r="C21" t="n">
-        <v>-392.4952252503711</v>
-      </c>
-      <c r="D21" t="n">
-        <v>936.8398693637459</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1562,12 +1432,6 @@
       <c r="B22" t="n">
         <v>282</v>
       </c>
-      <c r="C22" t="n">
-        <v>-314.2758046507714</v>
-      </c>
-      <c r="D22" t="n">
-        <v>971.4090404001299</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1576,12 +1440,6 @@
       <c r="B23" t="n">
         <v>305</v>
       </c>
-      <c r="C23" t="n">
-        <v>-414.8463921836206</v>
-      </c>
-      <c r="D23" t="n">
-        <v>980.1141417636125</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1590,12 +1448,6 @@
       <c r="B24" t="n">
         <v>313</v>
       </c>
-      <c r="C24" t="n">
-        <v>-383.9588805973181</v>
-      </c>
-      <c r="D24" t="n">
-        <v>960.1961906087387</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1604,12 +1456,6 @@
       <c r="B25" t="n">
         <v>321</v>
       </c>
-      <c r="C25" t="n">
-        <v>-398.1468806889637</v>
-      </c>
-      <c r="D25" t="n">
-        <v>968.3370098517097</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1618,12 +1464,6 @@
       <c r="B26" t="n">
         <v>328</v>
       </c>
-      <c r="C26" t="n">
-        <v>-300.4593911293841</v>
-      </c>
-      <c r="D26" t="n">
-        <v>993.4159362035201</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1632,12 +1472,6 @@
       <c r="B27" t="n">
         <v>336</v>
       </c>
-      <c r="C27" t="n">
-        <v>-362.4780832236549</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1048.008735011729</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1646,12 +1480,6 @@
       <c r="B28" t="n">
         <v>344</v>
       </c>
-      <c r="C28" t="n">
-        <v>-332.1092700455959</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1012.49814606384</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1660,12 +1488,6 @@
       <c r="B29" t="n">
         <v>351</v>
       </c>
-      <c r="C29" t="n">
-        <v>-320.9892437962333</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1009.358407533439</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1674,12 +1496,6 @@
       <c r="B30" t="n">
         <v>359</v>
       </c>
-      <c r="C30" t="n">
-        <v>-295.6048878414422</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1008.231633925392</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1688,12 +1504,6 @@
       <c r="B31" t="n">
         <v>367</v>
       </c>
-      <c r="C31" t="n">
-        <v>-269.669842235748</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1069.443945965432</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1702,12 +1512,6 @@
       <c r="B32" t="n">
         <v>374</v>
       </c>
-      <c r="C32" t="n">
-        <v>-340.1264480370506</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1021.82033576792</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1716,12 +1520,6 @@
       <c r="B33" t="n">
         <v>382</v>
       </c>
-      <c r="C33" t="n">
-        <v>-304.0004402957453</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1089.401693723235</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1730,12 +1528,6 @@
       <c r="B34" t="n">
         <v>390</v>
       </c>
-      <c r="C34" t="n">
-        <v>-240.0781717320419</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1023.52862616819</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1744,12 +1536,6 @@
       <c r="B35" t="n">
         <v>405</v>
       </c>
-      <c r="C35" t="n">
-        <v>-281.8584971199132</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1108.731542600141</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1758,12 +1544,6 @@
       <c r="B36" t="n">
         <v>428</v>
       </c>
-      <c r="C36" t="n">
-        <v>-253.3684232501689</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1124.964345462293</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1772,12 +1552,6 @@
       <c r="B37" t="n">
         <v>436</v>
       </c>
-      <c r="C37" t="n">
-        <v>-242.3478502934478</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1124.895098191723</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1786,12 +1560,6 @@
       <c r="B38" t="n">
         <v>443</v>
       </c>
-      <c r="C38" t="n">
-        <v>-213.6281624515166</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1103.872430939524</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1800,12 +1568,6 @@
       <c r="B39" t="n">
         <v>451</v>
       </c>
-      <c r="C39" t="n">
-        <v>-191.4488150168629</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1101.976895008428</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1814,12 +1576,6 @@
       <c r="B40" t="n">
         <v>459</v>
       </c>
-      <c r="C40" t="n">
-        <v>-214.8125270659654</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1132.074338246837</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1828,12 +1584,6 @@
       <c r="B41" t="n">
         <v>466</v>
       </c>
-      <c r="C41" t="n">
-        <v>-165.093640363066</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1131.594977956026</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1842,12 +1592,6 @@
       <c r="B42" t="n">
         <v>474</v>
       </c>
-      <c r="C42" t="n">
-        <v>-197.4055398982362</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1187.198368008229</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1856,12 +1600,6 @@
       <c r="B43" t="n">
         <v>482</v>
       </c>
-      <c r="C43" t="n">
-        <v>-219.6495232183699</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1146.616839746782</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1870,12 +1608,6 @@
       <c r="B44" t="n">
         <v>489</v>
       </c>
-      <c r="C44" t="n">
-        <v>-185.9169183449868</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1184.946277202754</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1884,12 +1616,6 @@
       <c r="B45" t="n">
         <v>497</v>
       </c>
-      <c r="C45" t="n">
-        <v>-152.7401649613681</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1226.898912649489</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1898,12 +1624,6 @@
       <c r="B46" t="n">
         <v>505</v>
       </c>
-      <c r="C46" t="n">
-        <v>-146.0054812207898</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1180.29805851638</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1912,12 +1632,6 @@
       <c r="B47" t="n">
         <v>512</v>
       </c>
-      <c r="C47" t="n">
-        <v>-182.4807037775768</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1185.52366181859</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1926,12 +1640,6 @@
       <c r="B48" t="n">
         <v>520</v>
       </c>
-      <c r="C48" t="n">
-        <v>-192.0056020767541</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1150.998916764872</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1940,12 +1648,6 @@
       <c r="B49" t="n">
         <v>528</v>
       </c>
-      <c r="C49" t="n">
-        <v>-165.5644801351283</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1254.170157941543</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1954,12 +1656,6 @@
       <c r="B50" t="n">
         <v>535</v>
       </c>
-      <c r="C50" t="n">
-        <v>-108.7118957132869</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1242.443094895355</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1968,12 +1664,6 @@
       <c r="B51" t="n">
         <v>543</v>
       </c>
-      <c r="C51" t="n">
-        <v>-97.53238305789634</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1261.309173800735</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1982,12 +1672,6 @@
       <c r="B52" t="n">
         <v>551</v>
       </c>
-      <c r="C52" t="n">
-        <v>-124.0646052630558</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1159.556291789233</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1996,12 +1680,6 @@
       <c r="B53" t="n">
         <v>558</v>
       </c>
-      <c r="C53" t="n">
-        <v>-124.3841071550571</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1252.810036639105</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2010,12 +1688,6 @@
       <c r="B54" t="n">
         <v>566</v>
       </c>
-      <c r="C54" t="n">
-        <v>-117.2885040736451</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1230.700246051374</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2024,12 +1696,6 @@
       <c r="B55" t="n">
         <v>581</v>
       </c>
-      <c r="C55" t="n">
-        <v>-56.79747608366263</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1269.985373966387</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2038,12 +1704,6 @@
       <c r="B56" t="n">
         <v>589</v>
       </c>
-      <c r="C56" t="n">
-        <v>-62.60516577239999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1272.590006835926</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2052,12 +1712,6 @@
       <c r="B57" t="n">
         <v>604</v>
       </c>
-      <c r="C57" t="n">
-        <v>-34.66948586059365</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1267.083664573039</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2066,12 +1720,6 @@
       <c r="B58" t="n">
         <v>612</v>
       </c>
-      <c r="C58" t="n">
-        <v>-63.37930539624385</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1320.864016987359</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2080,12 +1728,6 @@
       <c r="B59" t="n">
         <v>620</v>
       </c>
-      <c r="C59" t="n">
-        <v>-76.98061451978518</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1262.873764146057</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2094,12 +1736,6 @@
       <c r="B60" t="n">
         <v>635</v>
       </c>
-      <c r="C60" t="n">
-        <v>-74.19932502584328</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1315.965414320755</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2108,12 +1744,6 @@
       <c r="B61" t="n">
         <v>643</v>
       </c>
-      <c r="C61" t="n">
-        <v>-88.90773978567238</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1308.956890662789</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2122,12 +1752,6 @@
       <c r="B62" t="n">
         <v>650</v>
       </c>
-      <c r="C62" t="n">
-        <v>28.10009147332133</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1306.53237021419</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2136,12 +1760,6 @@
       <c r="B63" t="n">
         <v>666</v>
       </c>
-      <c r="C63" t="n">
-        <v>-34.1288965844203</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1368.902094325354</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2150,12 +1768,6 @@
       <c r="B64" t="n">
         <v>681</v>
       </c>
-      <c r="C64" t="n">
-        <v>16.85225285360239</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1331.891437803813</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2164,12 +1776,6 @@
       <c r="B65" t="n">
         <v>689</v>
       </c>
-      <c r="C65" t="n">
-        <v>-5.238889653378166</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1420.34478702922</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2178,12 +1784,6 @@
       <c r="B66" t="n">
         <v>696</v>
       </c>
-      <c r="C66" t="n">
-        <v>55.08320180158032</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1348.522272933445</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2192,12 +1792,6 @@
       <c r="B67" t="n">
         <v>704</v>
       </c>
-      <c r="C67" t="n">
-        <v>72.78076293855977</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1393.668649413338</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2206,12 +1800,6 @@
       <c r="B68" t="n">
         <v>712</v>
       </c>
-      <c r="C68" t="n">
-        <v>23.89716169152943</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1345.059331549625</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2220,12 +1808,6 @@
       <c r="B69" t="n">
         <v>750</v>
       </c>
-      <c r="C69" t="n">
-        <v>116.6971162436673</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1409.977726954412</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2234,12 +1816,6 @@
       <c r="B70" t="n">
         <v>758</v>
       </c>
-      <c r="C70" t="n">
-        <v>83.69377742135788</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1437.044458020383</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2248,12 +1824,6 @@
       <c r="B71" t="n">
         <v>773</v>
       </c>
-      <c r="C71" t="n">
-        <v>103.8782006108768</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1462.673875422163</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2262,12 +1832,6 @@
       <c r="B72" t="n">
         <v>789</v>
       </c>
-      <c r="C72" t="n">
-        <v>107.2114460117069</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1451.087922556911</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2276,12 +1840,6 @@
       <c r="B73" t="n">
         <v>796</v>
       </c>
-      <c r="C73" t="n">
-        <v>78.78999802917812</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1483.282991728968</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2290,12 +1848,6 @@
       <c r="B74" t="n">
         <v>804</v>
       </c>
-      <c r="C74" t="n">
-        <v>155.495618739007</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1493.980164497453</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2304,12 +1856,6 @@
       <c r="B75" t="n">
         <v>812</v>
       </c>
-      <c r="C75" t="n">
-        <v>140.8027248788518</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1506.963170226894</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2318,12 +1864,6 @@
       <c r="B76" t="n">
         <v>819</v>
       </c>
-      <c r="C76" t="n">
-        <v>129.9111838359548</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1459.623355153187</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2332,12 +1872,6 @@
       <c r="B77" t="n">
         <v>827</v>
       </c>
-      <c r="C77" t="n">
-        <v>176.2134215983134</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1528.89820855122</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2346,12 +1880,6 @@
       <c r="B78" t="n">
         <v>835</v>
       </c>
-      <c r="C78" t="n">
-        <v>152.5257951743156</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1475.073831143323</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2360,12 +1888,6 @@
       <c r="B79" t="n">
         <v>842</v>
       </c>
-      <c r="C79" t="n">
-        <v>155.3744851381666</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1549.484075368446</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2373,12 +1895,6 @@
       </c>
       <c r="B80" t="n">
         <v>850</v>
-      </c>
-      <c r="C80" t="n">
-        <v>170.2533249644576</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1503.866383645433</v>
       </c>
     </row>
   </sheetData>
